--- a/data/trans_camb/P17_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,48</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-9,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-6,67</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 0,55</t>
+          <t>-9,72; 2,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 4,01</t>
+          <t>-8,57; 4,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,14</t>
+          <t>-8,23; 5,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -5,93</t>
+          <t>-5,49; 9,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 2,96</t>
+          <t>-15,86; -2,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 15,82</t>
+          <t>-7,95; 8,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -4,52</t>
+          <t>-7,4; 8,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 2,15</t>
+          <t>-9,37; 7,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 8,9</t>
+          <t>-11,45; -2,0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; 3,79</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 5,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 5,93</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-41,46%</t>
+          <t>-32,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>-19,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>-10,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-49,57%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,39%</t>
+          <t>-49,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-47,26%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>-10,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>-43,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-6,57%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,6%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 13,56</t>
+          <t>-68,03; 43,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 59,78</t>
+          <t>-63,19; 62,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 69,38</t>
+          <t>-61,48; 86,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,06; -28,7</t>
+          <t>-41,92; 129,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 15,54</t>
+          <t>-69,37; -14,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 77,94</t>
+          <t>-33,17; 54,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,03; -28,82</t>
+          <t>-31,32; 56,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 14,75</t>
+          <t>-40,77; 50,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 55,26</t>
+          <t>-64,72; -16,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-34,29; 29,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,98; 43,47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-28,08; 45,64</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,12</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-11,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-8,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-7,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-8,54</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-5,74</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 12,26</t>
+          <t>-12,17; 2,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 9,05</t>
+          <t>-10,14; 5,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 7,03</t>
+          <t>-6,53; 9,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -1,86</t>
+          <t>-5,67; 10,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 2,1</t>
+          <t>-19,06; -2,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 4,91</t>
+          <t>-16,77; -0,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 0,42</t>
+          <t>-15,59; 1,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,99</t>
+          <t>-5,04; 20,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 3,76</t>
+          <t>-14,16; -3,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 0,36</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,14; 2,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 11,99</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,43%</t>
+          <t>-42,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>-21,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-40,97%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,5%</t>
+          <t>-51,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>-37,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-35,17%</t>
+          <t>-32,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,12%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>-48,59%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-32,65%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-18,01%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,71; 162,85</t>
+          <t>-74,36; 40,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 102,94</t>
+          <t>-63,38; 67,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 87,38</t>
+          <t>-40,39; 137,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,5; -9,04</t>
+          <t>-36,14; 128,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 12,03</t>
+          <t>-73,2; -17,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 25,73</t>
+          <t>-61,75; -0,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,17; 6,43</t>
+          <t>-57,55; 8,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,18; 20,2</t>
+          <t>-22,45; 113,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 24,61</t>
+          <t>-67,87; -20,22</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-53,4; 2,61</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-44,03; 16,2</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 75,12</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,05</t>
+          <t>-27,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-13,0</t>
+          <t>-31,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,19</t>
+          <t>-24,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-18,17</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,05</t>
+          <t>-19,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-16,02</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,06</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,51</t>
+          <t>-23,7</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-19,79</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-14,72</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-5,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 0,72</t>
+          <t>-66,39; -1,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 1,78</t>
+          <t>-69,47; -5,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-36,57; 6,42</t>
+          <t>-65,58; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,66; -5,19</t>
+          <t>-46,8; 41,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 3,76</t>
+          <t>-36,13; -2,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 7,3</t>
+          <t>-26,71; 11,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,91; -6,1</t>
+          <t>-24,09; 14,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,04; -2,84</t>
+          <t>-25,87; 11,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 1,85</t>
+          <t>-47,54; -9,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-45,71; -4,63</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-40,53; 1,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-31,57; 21,45</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-60,06%</t>
+          <t>-75,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-55,58%</t>
+          <t>-84,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,3%</t>
+          <t>-66,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-67,33%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-40,93%</t>
+          <t>-71,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,21%</t>
+          <t>-30,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-63,8%</t>
+          <t>-16,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-48,02%</t>
+          <t>-30,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-33,89%</t>
+          <t>-73,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-61,55%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-45,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-17,92%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 6,08</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-92,59; 24,35</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,33; 61,14</t>
+          <t>-100,0; 33,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-88,0; -20,39</t>
+          <t>-95,93; 302,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,44; 24,02</t>
+          <t>-100,0; -2,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,54; 41,33</t>
+          <t>-75,02; 74,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-83,9; -27,65</t>
+          <t>-64,39; 95,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,43; -10,96</t>
+          <t>-73,34; 73,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,88; 11,9</t>
+          <t>-92,65; -29,64</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-88,78; -13,71</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-80,39; 17,42</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-74,08; 117,24</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-9,15</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-4,83</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 0,3</t>
+          <t>-13,99; -1,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 2,58</t>
+          <t>-13,26; 0,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,71</t>
+          <t>-10,65; 3,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -7,07</t>
+          <t>-6,06; 10,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,3</t>
+          <t>-15,87; -5,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 7,01</t>
+          <t>-9,53; 1,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -4,84</t>
+          <t>-8,69; 2,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,31</t>
+          <t>-5,92; 7,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 3,61</t>
+          <t>-13,46; -5,87</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; -0,96</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 1,08</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 6,1</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-38,11%</t>
+          <t>-48,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,15%</t>
+          <t>-38,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>-18,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-48,31%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-18,77%</t>
+          <t>-53,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-45,12%</t>
+          <t>-14,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-18,22%</t>
+          <t>-0,99%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>-51,09%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-26,97%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,5; 9,19</t>
+          <t>-70,17; -10,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 26,5</t>
+          <t>-65,84; 1,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 37,42</t>
+          <t>-53,01; 33,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-59,35; -34,9</t>
+          <t>-36,84; 90,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,75; -1,39</t>
+          <t>-66,15; -31,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 33,12</t>
+          <t>-39,3; 10,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,13; -28,03</t>
+          <t>-36,33; 13,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,08; -1,79</t>
+          <t>-25,59; 38,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 22,77</t>
+          <t>-64,47; -35,74</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-44,74; -5,56</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-35,32; 6,88</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-23,65; 38,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
